--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1711.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1711.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.316143543286148</v>
+        <v>0.8084924817085266</v>
       </c>
       <c r="B1">
-        <v>1.115653140849496</v>
+        <v>2.100004434585571</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.466399785842745</v>
+        <v>1.289513349533081</v>
       </c>
       <c r="E1">
-        <v>1.682004374224656</v>
+        <v>0.5090140104293823</v>
       </c>
     </row>
   </sheetData>
